--- a/data/TesslaServer Ram Usage Benchmark.xlsx
+++ b/data/TesslaServer Ram Usage Benchmark.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>V1</t>
   </si>
@@ -112,7 +112,13 @@
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
     <cellStyle name="Überschrift 1" xfId="1" builtinId="16"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[&lt;1000000]\ #,##0.00&quot; KB&quot;;[&lt;1000000000]#,##0.00,,&quot; MB&quot;;#,##0.00,,,&quot; GB&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[&lt;1000000]\ #,##0.00&quot; KB&quot;;[&lt;1000000000]#,##0.00,,&quot; MB&quot;;#,##0.00,,,&quot; GB&quot;"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[&lt;1000000]\ #,##0.00&quot; KB&quot;;[&lt;1000000000]#,##0.00,,&quot; MB&quot;;#,##0.00,,,&quot; GB&quot;"/>
     </dxf>
@@ -194,7 +200,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -203,6 +209,38 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Out</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> of Memory</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:numFmt formatCode="[&lt;1000000]\ #,##0.00&quot; KB&quot;;[&lt;1000000000]#,##0.0,,&quot; MB&quot;;#,##0.0,,,&quot; GB&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
@@ -283,10 +321,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$24:$E$24</c:f>
+              <c:f>Tabelle1!$C$24:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>[&lt;1000000]\ #,##0.00" KB";[&lt;1000000000]#,##0.00,," MB";#,##0.00,,," GB"</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>9.52129536E7</c:v>
                 </c:pt>
@@ -295,6 +333,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.7372196864E9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0E9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -308,7 +349,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -427,11 +468,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-787163376"/>
-        <c:axId val="-754109840"/>
+        <c:axId val="-1181273024"/>
+        <c:axId val="-1167769024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-787163376"/>
+        <c:axId val="-1181273024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,7 +571,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-754109840"/>
+        <c:crossAx val="-1167769024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -538,9 +579,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-754109840"/>
+        <c:axId val="-1167769024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2.0E9"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -645,7 +687,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-787163376"/>
+        <c:crossAx val="-1181273024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1275,12 +1317,12 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:colOff>330200</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -1305,12 +1347,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="C3:E24" totalsRowCount="1">
-  <autoFilter ref="C3:E23"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="500" totalsRowFunction="average" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="2" name="1000" totalsRowFunction="average" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="3" name="5000" totalsRowFunction="average" dataDxfId="9" totalsRowDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="C3:F24" totalsRowCount="1">
+  <autoFilter ref="C3:F23"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="500" totalsRowFunction="average" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="2" name="1000" totalsRowFunction="average" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="3" name="5000" totalsRowFunction="average" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="4" name="10000" totalsRowFunction="average" dataDxfId="9" totalsRowDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1595,7 +1638,7 @@
   <dimension ref="C2:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1621,6 +1664,9 @@
       <c r="E3" t="s">
         <v>2</v>
       </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C4" s="1">
@@ -1632,7 +1678,9 @@
       <c r="E4" s="1">
         <v>1547104256</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>2000000000</v>
+      </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C5" s="1">
@@ -1874,6 +1922,10 @@
       <c r="E24" s="1">
         <f>SUBTOTAL(101,Tabelle1[5000])</f>
         <v>1737219686.4000001</v>
+      </c>
+      <c r="F24" s="1">
+        <f>SUBTOTAL(101,Tabelle1[10000])</f>
+        <v>2000000000</v>
       </c>
     </row>
     <row r="27" spans="3:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">

--- a/data/TesslaServer Ram Usage Benchmark.xlsx
+++ b/data/TesslaServer Ram Usage Benchmark.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -163,6 +163,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF77200"/>
+      <color rgb="FF0C4E6C"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -200,7 +206,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="0C4E6C"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -349,7 +355,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="F77200"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -468,11 +474,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1181273024"/>
-        <c:axId val="-1167769024"/>
+        <c:axId val="-1543887760"/>
+        <c:axId val="-1543885104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1181273024"/>
+        <c:axId val="-1543887760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -571,7 +577,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1167769024"/>
+        <c:crossAx val="-1543885104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -579,7 +585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1167769024"/>
+        <c:axId val="-1543885104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0E9"/>
@@ -687,7 +693,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1181273024"/>
+        <c:crossAx val="-1543887760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/data/TesslaServer Ram Usage Benchmark.xlsx
+++ b/data/TesslaServer Ram Usage Benchmark.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>V1</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>500</t>
+  </si>
+  <si>
+    <t>V2</t>
   </si>
 </sst>
 </file>
@@ -112,7 +115,31 @@
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
     <cellStyle name="Überschrift 1" xfId="1" builtinId="16"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="24">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[&lt;1000000]\ #,##0.00&quot; KB&quot;;[&lt;1000000000]#,##0.00,,&quot; MB&quot;;#,##0.00,,,&quot; GB&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[&lt;1000000]\ #,##0.00&quot; KB&quot;;[&lt;1000000000]#,##0.00,,&quot; MB&quot;;#,##0.00,,,&quot; GB&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[&lt;1000000]\ #,##0.00&quot; KB&quot;;[&lt;1000000000]#,##0.00,,&quot; MB&quot;;#,##0.00,,,&quot; GB&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[&lt;1000000]\ #,##0.00&quot; KB&quot;;[&lt;1000000000]#,##0.00,,&quot; MB&quot;;#,##0.00,,,&quot; GB&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[&lt;1000000]\ #,##0.00&quot; KB&quot;;[&lt;1000000000]#,##0.00,,&quot; MB&quot;;#,##0.00,,,&quot; GB&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[&lt;1000000]\ #,##0.00&quot; KB&quot;;[&lt;1000000000]#,##0.00,,&quot; MB&quot;;#,##0.00,,,&quot; GB&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[&lt;1000000]\ #,##0.00&quot; KB&quot;;[&lt;1000000000]#,##0.00,,&quot; MB&quot;;#,##0.00,,,&quot; GB&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[&lt;1000000]\ #,##0.00&quot; KB&quot;;[&lt;1000000000]#,##0.00,,&quot; MB&quot;;#,##0.00,,,&quot; GB&quot;"/>
     </dxf>
@@ -165,6 +192,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FF99B222"/>
       <color rgb="FFF77200"/>
       <color rgb="FF0C4E6C"/>
     </mruColors>
@@ -247,7 +275,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
-            <c:numFmt formatCode="[&lt;1000000]\ #,##0.00&quot; KB&quot;;[&lt;1000000000]#,##0.0,,&quot; MB&quot;;#,##0.0,,,&quot; GB&quot;" sourceLinked="0"/>
+            <c:numFmt formatCode="[&lt;1000000]\ #,##0.00&quot; KB&quot;;[&lt;1000000000]#,##0,,&quot; MB&quot;;#,##0.0,,,&quot; GB&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -307,7 +335,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$C$28:$F$28</c:f>
+              <c:f>Tabelle1!$C$53:$F$53</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -364,7 +392,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="[&lt;1000000]\ #,##0.00&quot; KB&quot;;[&lt;1000000000]#,##0.0,,&quot; MB&quot;;#,##0.0,,,&quot; GB&quot;" sourceLinked="0"/>
+            <c:numFmt formatCode="[&lt;1000000]\ #,##0.00&quot; KB&quot;;[&lt;1000000000]#,##0,,&quot; MB&quot;;#,##0.0,,,&quot; GB&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -424,7 +452,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$C$28:$F$28</c:f>
+              <c:f>Tabelle1!$C$53:$F$53</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -464,6 +492,123 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>V2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99B222"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="[&lt;1000000]\ #,##0.00&quot; KB&quot;;[&lt;1000000000]#,##0,,&quot; MB&quot;;#,##0.0,,,&quot; GB&quot;" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$C$53:$F$53</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$74:$F$74</c:f>
+              <c:numCache>
+                <c:formatCode>[&lt;1000000]\ #,##0.00" KB";[&lt;1000000000]#,##0.00,," MB";#,##0.00,,," GB"</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.19555072E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.48610048E7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.91687424E7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.05007616E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -472,13 +617,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-1543887760"/>
-        <c:axId val="-1543885104"/>
+        <c:gapWidth val="240"/>
+        <c:overlap val="-50"/>
+        <c:axId val="1126177520"/>
+        <c:axId val="1126181152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1543887760"/>
+        <c:axId val="1126177520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -577,7 +722,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1543885104"/>
+        <c:crossAx val="1126181152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -585,7 +730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1543885104"/>
+        <c:axId val="1126181152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0E9"/>
@@ -693,7 +838,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1543887760"/>
+        <c:crossAx val="1126177520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1353,8 +1498,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="C3:F24" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Version1" displayName="Version1" ref="C3:F24" totalsRowCount="1">
   <autoFilter ref="C3:F23"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="500" totalsRowFunction="average" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="2" name="1000" totalsRowFunction="average" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="3" name="5000" totalsRowFunction="average" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="4" name="10000" totalsRowFunction="average" dataDxfId="17" totalsRowDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Version1.5" displayName="Version1.5" ref="C28:F50" totalsRowCount="1">
+  <autoFilter ref="C28:F49"/>
   <tableColumns count="4">
     <tableColumn id="1" name="500" totalsRowFunction="average" dataDxfId="15" totalsRowDxfId="14"/>
     <tableColumn id="2" name="1000" totalsRowFunction="average" dataDxfId="13" totalsRowDxfId="12"/>
@@ -1365,9 +1523,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle13" displayName="Tabelle13" ref="C28:F50" totalsRowCount="1">
-  <autoFilter ref="C28:F49"/>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Version2" displayName="Version2" ref="C53:F74" totalsRowCount="1">
+  <autoFilter ref="C53:F73"/>
   <tableColumns count="4">
     <tableColumn id="1" name="500" totalsRowFunction="average" dataDxfId="7" totalsRowDxfId="6"/>
     <tableColumn id="2" name="1000" totalsRowFunction="average" dataDxfId="5" totalsRowDxfId="4"/>
@@ -1641,10 +1799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:F50"/>
+  <dimension ref="C2:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1918,19 +2076,19 @@
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C24" s="1">
-        <f>SUBTOTAL(101,Tabelle1[500])</f>
+        <f>SUBTOTAL(101,Version1[500])</f>
         <v>95212953.599999994</v>
       </c>
       <c r="D24" s="1">
-        <f>SUBTOTAL(101,Tabelle1[1000])</f>
+        <f>SUBTOTAL(101,Version1[1000])</f>
         <v>207408128</v>
       </c>
       <c r="E24" s="1">
-        <f>SUBTOTAL(101,Tabelle1[5000])</f>
+        <f>SUBTOTAL(101,Version1[5000])</f>
         <v>1737219686.4000001</v>
       </c>
       <c r="F24" s="1">
-        <f>SUBTOTAL(101,Tabelle1[10000])</f>
+        <f>SUBTOTAL(101,Version1[10000])</f>
         <v>2000000000</v>
       </c>
     </row>
@@ -2252,33 +2410,355 @@
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C50" s="1">
-        <f>SUBTOTAL(101,Tabelle13[500])</f>
+        <f>SUBTOTAL(101,Version1.5[500])</f>
         <v>51278214.095238097</v>
       </c>
       <c r="D50" s="1">
-        <f>SUBTOTAL(101,Tabelle13[1000])</f>
+        <f>SUBTOTAL(101,Version1.5[1000])</f>
         <v>53018038.857142858</v>
       </c>
       <c r="E50" s="1">
-        <f>SUBTOTAL(101,Tabelle13[5000])</f>
+        <f>SUBTOTAL(101,Version1.5[5000])</f>
         <v>59254686.476190478</v>
       </c>
       <c r="F50" s="1">
-        <f>SUBTOTAL(101,Tabelle13[10000])</f>
+        <f>SUBTOTAL(101,Version1.5[10000])</f>
         <v>64827587.047619045</v>
       </c>
     </row>
+    <row r="52" spans="3:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="3:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C54" s="1">
+        <v>50946048</v>
+      </c>
+      <c r="D54" s="1">
+        <v>51707904</v>
+      </c>
+      <c r="E54" s="1">
+        <v>65994752</v>
+      </c>
+      <c r="F54" s="1">
+        <v>71819264</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C55" s="1">
+        <v>50552832</v>
+      </c>
+      <c r="D55" s="1">
+        <v>59711488</v>
+      </c>
+      <c r="E55" s="1">
+        <v>63254528</v>
+      </c>
+      <c r="F55" s="1">
+        <v>71647232</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C56" s="1">
+        <v>52092928</v>
+      </c>
+      <c r="D56" s="1">
+        <v>50167808</v>
+      </c>
+      <c r="E56" s="1">
+        <v>73342976</v>
+      </c>
+      <c r="F56" s="1">
+        <v>79175680</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C57" s="1">
+        <v>50454528</v>
+      </c>
+      <c r="D57" s="1">
+        <v>51347456</v>
+      </c>
+      <c r="E57" s="1">
+        <v>66117632</v>
+      </c>
+      <c r="F57" s="1">
+        <v>65732608</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C58" s="1">
+        <v>62369792</v>
+      </c>
+      <c r="D58" s="1">
+        <v>52334592</v>
+      </c>
+      <c r="E58" s="1">
+        <v>75558912</v>
+      </c>
+      <c r="F58" s="1">
+        <v>72335360</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C59" s="1">
+        <v>50237440</v>
+      </c>
+      <c r="D59" s="1">
+        <v>49909760</v>
+      </c>
+      <c r="E59" s="1">
+        <v>70639616</v>
+      </c>
+      <c r="F59" s="1">
+        <v>81989632</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C60" s="1">
+        <v>49840128</v>
+      </c>
+      <c r="D60" s="1">
+        <v>51507200</v>
+      </c>
+      <c r="E60" s="1">
+        <v>61734912</v>
+      </c>
+      <c r="F60" s="1">
+        <v>70565888</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C61" s="1">
+        <v>53223424</v>
+      </c>
+      <c r="D61" s="1">
+        <v>52203520</v>
+      </c>
+      <c r="E61" s="1">
+        <v>61235200</v>
+      </c>
+      <c r="F61" s="1">
+        <v>70045696</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C62" s="1">
+        <v>55054336</v>
+      </c>
+      <c r="D62" s="1">
+        <v>52322304</v>
+      </c>
+      <c r="E62" s="1">
+        <v>77856768</v>
+      </c>
+      <c r="F62" s="1">
+        <v>74080256</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C63" s="1">
+        <v>51113984</v>
+      </c>
+      <c r="D63" s="1">
+        <v>50855936</v>
+      </c>
+      <c r="E63" s="1">
+        <v>65753088</v>
+      </c>
+      <c r="F63" s="1">
+        <v>66146304</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C64" s="1">
+        <v>52039680</v>
+      </c>
+      <c r="D64" s="1">
+        <v>51568640</v>
+      </c>
+      <c r="E64" s="1">
+        <v>63205376</v>
+      </c>
+      <c r="F64" s="1">
+        <v>68694016</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C65" s="1">
+        <v>49971200</v>
+      </c>
+      <c r="D65" s="1">
+        <v>50913280</v>
+      </c>
+      <c r="E65" s="1">
+        <v>93257728</v>
+      </c>
+      <c r="F65" s="1">
+        <v>66228224</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C66" s="1">
+        <v>53911552</v>
+      </c>
+      <c r="D66" s="1">
+        <v>51404800</v>
+      </c>
+      <c r="E66" s="1">
+        <v>66138112</v>
+      </c>
+      <c r="F66" s="1">
+        <v>61747200</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C67" s="1">
+        <v>49709056</v>
+      </c>
+      <c r="D67" s="1">
+        <v>68419584</v>
+      </c>
+      <c r="E67" s="1">
+        <v>71987200</v>
+      </c>
+      <c r="F67" s="1">
+        <v>67964928</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C68" s="1">
+        <v>49836032</v>
+      </c>
+      <c r="D68" s="1">
+        <v>64053248</v>
+      </c>
+      <c r="E68" s="1">
+        <v>63655936</v>
+      </c>
+      <c r="F68" s="1">
+        <v>68894720</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C69" s="1">
+        <v>50388992</v>
+      </c>
+      <c r="D69" s="1">
+        <v>51535872</v>
+      </c>
+      <c r="E69" s="1">
+        <v>71286784</v>
+      </c>
+      <c r="F69" s="1">
+        <v>64425984</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C70" s="1">
+        <v>49287168</v>
+      </c>
+      <c r="D70" s="1">
+        <v>50302976</v>
+      </c>
+      <c r="E70" s="1">
+        <v>68034560</v>
+      </c>
+      <c r="F70" s="1">
+        <v>69734400</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C71" s="1">
+        <v>52944896</v>
+      </c>
+      <c r="D71" s="1">
+        <v>61198336</v>
+      </c>
+      <c r="E71" s="1">
+        <v>64487424</v>
+      </c>
+      <c r="F71" s="1">
+        <v>67559424</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C72" s="1">
+        <v>53407744</v>
+      </c>
+      <c r="D72" s="1">
+        <v>60219392</v>
+      </c>
+      <c r="E72" s="1">
+        <v>66408448</v>
+      </c>
+      <c r="F72" s="1">
+        <v>83869696</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C73" s="1">
+        <v>51728384</v>
+      </c>
+      <c r="D73" s="1">
+        <v>65536000</v>
+      </c>
+      <c r="E73" s="1">
+        <v>73424896</v>
+      </c>
+      <c r="F73" s="1">
+        <v>67358720</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C74" s="1">
+        <f>SUBTOTAL(101,Version2[500])</f>
+        <v>51955507.200000003</v>
+      </c>
+      <c r="D74" s="1">
+        <f>SUBTOTAL(101,Version2[1000])</f>
+        <v>54861004.799999997</v>
+      </c>
+      <c r="E74" s="1">
+        <f>SUBTOTAL(101,Version2[5000])</f>
+        <v>69168742.400000006</v>
+      </c>
+      <c r="F74" s="1">
+        <f>SUBTOTAL(101,Version2[10000])</f>
+        <v>70500761.599999994</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C52:F52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>